--- a/excel_menu/southmess.xlsx
+++ b/excel_menu/southmess.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
   <si>
     <t xml:space="preserve">Meal</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Upma</t>
   </si>
   <si>
-    <t xml:space="preserve">Poori</t>
+    <t xml:space="preserve">Poha</t>
   </si>
   <si>
     <t xml:space="preserve">Dalia</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Dosakaya</t>
   </si>
   <si>
-    <t xml:space="preserve">Kakarakaya/Brinjal onions</t>
+    <t xml:space="preserve">Kakarakaya</t>
   </si>
   <si>
     <t xml:space="preserve">Aloo fry</t>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pulao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato Rice</t>
   </si>
   <si>
     <t xml:space="preserve">Paneer / Veg Dum Biryani</t>
@@ -342,9 +345,6 @@
     <t xml:space="preserve">Dinner</t>
   </si>
   <si>
-    <t xml:space="preserve">Aloo 65</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dondakaya curry/ beetroot</t>
   </si>
   <si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spl Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomato Rice</t>
   </si>
   <si>
     <t xml:space="preserve">Dadhojanam</t>
@@ -895,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.15"/>
@@ -1239,51 +1236,53 @@
       <c r="G13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="I13" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="21"/>
     </row>
     <row r="15" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1294,15 +1293,15 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1311,54 +1310,54 @@
         <v>41</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>93</v>
-      </c>
       <c r="G17" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1367,37 +1366,35 @@
         <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="C20" s="30"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30" t="s">
@@ -1558,7 +1555,7 @@
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="30" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -1567,47 +1564,47 @@
         <v>78</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28"/>
       <c r="B28" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
       <c r="H28" s="30"/>
       <c r="I28" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28"/>
       <c r="B29" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" s="12" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1616,25 +1613,25 @@
         <v>41</v>
       </c>
       <c r="C30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>148</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/excel_menu/southmess.xlsx
+++ b/excel_menu/southmess.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
   <si>
     <t xml:space="preserve">Meal</t>
   </si>
@@ -58,48 +58,48 @@
     <t xml:space="preserve">Upma</t>
   </si>
   <si>
+    <t xml:space="preserve">Poori/Kachori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pongal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewai Upma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosa(Kaaram/Corn/Paneer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesarattu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread-Butter-Jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttapam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uggani</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poha</t>
   </si>
   <si>
-    <t xml:space="preserve">Dalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pongal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sewai Upma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosa (Karam/Corn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poori/ kachori/ Paratha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesarattu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uttapam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uggani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bread-Butter-Jam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accompaniments</t>
   </si>
   <si>
@@ -157,25 +157,22 @@
     <t xml:space="preserve">Fry</t>
   </si>
   <si>
-    <t xml:space="preserve">Potato fry, Bendakaya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potato/ cauliflower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosakaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kakarakaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloo fry</t>
+    <t xml:space="preserve">Potato fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cauliflower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chana Brinjal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Peas Masala, Aloo Matar Curry, French Fries</t>
   </si>
   <si>
     <t xml:space="preserve">Curry</t>
   </si>
   <si>
-    <t xml:space="preserve">Drumstick with Palak/ Tomato</t>
+    <t xml:space="preserve">Tomato Drumstick Curry</t>
   </si>
   <si>
     <t xml:space="preserve">Meal Maker</t>
@@ -199,10 +196,10 @@
     <t xml:space="preserve">Mix Dal</t>
   </si>
   <si>
-    <t xml:space="preserve">Masoor dal, Lobia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mudda Pappu, Chole</t>
+    <t xml:space="preserve">Masoor dal, Chole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudda Pappu, Lobia</t>
   </si>
   <si>
     <t xml:space="preserve">Palakura Pappu</t>
@@ -211,10 +208,10 @@
     <t xml:space="preserve">Stew</t>
   </si>
   <si>
-    <t xml:space="preserve">Kobbari Charu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasam</t>
+    <t xml:space="preserve">Pappu Charu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasam/ Boondi Raitha</t>
   </si>
   <si>
     <t xml:space="preserve">Soya bean</t>
@@ -256,7 +253,7 @@
     <t xml:space="preserve">Pulihora</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeera Rice</t>
+    <t xml:space="preserve">Jeera Rice/ Green Peas Pulao</t>
   </si>
   <si>
     <t xml:space="preserve">Veg Biryani</t>
@@ -283,7 +280,7 @@
     <t xml:space="preserve">Pachhadi</t>
   </si>
   <si>
-    <t xml:space="preserve">pachadi</t>
+    <t xml:space="preserve">pachadi, Chenaga Bella Payasam</t>
   </si>
   <si>
     <t xml:space="preserve"> pachadi</t>
@@ -324,15 +321,15 @@
     <t xml:space="preserve">Gunta Ponganalu</t>
   </si>
   <si>
+    <t xml:space="preserve">Samosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onion Pakodi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aloo Bonda</t>
   </si>
   <si>
-    <t xml:space="preserve">Onion Pakodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Steam Dosa</t>
   </si>
   <si>
@@ -348,16 +345,16 @@
     <t xml:space="preserve">Dondakaya curry/ beetroot</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrot Green Peas fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potato fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix Veg with Paneer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beerakaya </t>
+    <t xml:space="preserve">Carrot Green Peas fry, Aloo 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobi/Veg Manchuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadai Paneer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beerakaya Tomato Curry</t>
   </si>
   <si>
     <t xml:space="preserve">Aloo Kurma</t>
@@ -366,10 +363,10 @@
     <t xml:space="preserve">Matar Paneer</t>
   </si>
   <si>
-    <t xml:space="preserve">Chole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brinjal/Thotakura</t>
+    <t xml:space="preserve">Lobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brinjal, Chole</t>
   </si>
   <si>
     <t xml:space="preserve">Rajmah Curry</t>
@@ -378,7 +375,7 @@
     <t xml:space="preserve">Toor dal</t>
   </si>
   <si>
-    <t xml:space="preserve">Moong dal, Lobia</t>
+    <t xml:space="preserve">Moong dal, Chole</t>
   </si>
   <si>
     <t xml:space="preserve">Masoor Dal</t>
@@ -399,12 +396,12 @@
     <t xml:space="preserve">Pepper Rasam</t>
   </si>
   <si>
+    <t xml:space="preserve">Sambar, Dondakaya Dum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tomato Rasam</t>
   </si>
   <si>
-    <t xml:space="preserve">Dappalam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ginger rasam</t>
   </si>
   <si>
@@ -423,10 +420,13 @@
     <t xml:space="preserve">Lachha Paratha / Chapathi</t>
   </si>
   <si>
+    <t xml:space="preserve">Poori</t>
+  </si>
+  <si>
     <t xml:space="preserve">karam chitlu podi</t>
   </si>
   <si>
-    <t xml:space="preserve">Putana Chutney &amp; fried onions</t>
+    <t xml:space="preserve">Groundnut Chutney &amp; fried onions</t>
   </si>
   <si>
     <t xml:space="preserve">Fresh chutney</t>
@@ -438,7 +438,7 @@
     <t xml:space="preserve">Onion salad</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalebi/Gulab jamoon</t>
+    <t xml:space="preserve">Spl. Sweet</t>
   </si>
   <si>
     <t xml:space="preserve">Peanut chiki/ Basen chiki</t>
@@ -459,10 +459,10 @@
     <t xml:space="preserve">Mamidikaya Pickle</t>
   </si>
   <si>
-    <t xml:space="preserve">Roti/ Paratha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paratha</t>
+    <t xml:space="preserve">Chapati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacha Paratha</t>
   </si>
   <si>
     <t xml:space="preserve">Pl. Rice,Curd,Ghee,Fryums</t>
@@ -892,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.15"/>
@@ -1092,197 +1092,195 @@
       <c r="G7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="I10" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="F11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="21"/>
     </row>
     <row r="15" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1293,15 +1291,15 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1310,54 +1308,54 @@
         <v>41</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="F17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="G18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="H18" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="I18" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1366,30 +1364,30 @@
         <v>26</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>44</v>
@@ -1398,114 +1396,114 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>107</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="F21" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="G21" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="H21" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="I21" s="32" t="s">
         <v>115</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="G22" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="H22" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="I22" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>66</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="I23" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="28"/>
       <c r="B24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
       <c r="I24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1534,7 +1532,7 @@
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="28"/>
       <c r="B26" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
@@ -1554,15 +1552,13 @@
         <v>140</v>
       </c>
       <c r="C27" s="31"/>
-      <c r="D27" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="D27" s="30"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30" t="s">
-        <v>78</v>
-      </c>
+      <c r="G27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="30"/>
       <c r="I27" s="32" t="s">
         <v>141</v>
       </c>
@@ -1570,7 +1566,7 @@
     <row r="28" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28"/>
       <c r="B28" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="30" t="s">
@@ -1589,22 +1585,24 @@
     <row r="29" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28"/>
       <c r="B29" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="30" t="s">
         <v>146</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" s="12" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/excel_menu/southmess.xlsx
+++ b/excel_menu/southmess.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
   <si>
     <t xml:space="preserve">Meal</t>
   </si>
@@ -103,31 +103,25 @@
     <t xml:space="preserve">Accompaniments</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chutney, Sambar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poori masala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chutney, sambar</t>
+    <t xml:space="preserve"> Chutney, Sambar, Allam Chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poori masala/ Sambar, Chutney, Allam Chutney</t>
   </si>
   <si>
     <t xml:space="preserve">Chutney, Sambar</t>
   </si>
   <si>
-    <t xml:space="preserve">chutney, Sambar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloo Sabji/ Chole</t>
+    <t xml:space="preserve">Aloo Sabji/ Chole (or) Chutney/ Sambar</t>
   </si>
   <si>
     <t xml:space="preserve">Fruits</t>
   </si>
   <si>
-    <t xml:space="preserve">Watermelon, Moong sprouts salad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana, Sattu Drink</t>
+    <t xml:space="preserve">Watermelon, Sattu Drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana, Steamed Moong Sprouts</t>
   </si>
   <si>
     <t xml:space="preserve">Muskmelon, Chana sprouts salad</t>
@@ -139,10 +133,10 @@
     <t xml:space="preserve">Papaya, Moong Sprouts salad</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana/ Grape Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskmelon</t>
+    <t xml:space="preserve">Banana, Steamed Peanut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskmelon, Sattu Drink</t>
   </si>
   <si>
     <t xml:space="preserve">Compulsory</t>
@@ -157,7 +151,7 @@
     <t xml:space="preserve">Fry</t>
   </si>
   <si>
-    <t xml:space="preserve">Potato fry</t>
+    <t xml:space="preserve">Potato Curry</t>
   </si>
   <si>
     <t xml:space="preserve">Cauliflower</t>
@@ -181,13 +175,16 @@
     <t xml:space="preserve">Tuver dal</t>
   </si>
   <si>
+    <t xml:space="preserve">Creamy Tomato Soup</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kofta curry</t>
   </si>
   <si>
     <t xml:space="preserve">Dal</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosakaya Pappu, Soyabean</t>
+    <t xml:space="preserve">Dosakaya Pappu, Soyaseeds</t>
   </si>
   <si>
     <t xml:space="preserve">Thotakura pappu, Kala chana</t>
@@ -196,7 +193,7 @@
     <t xml:space="preserve">Mix Dal</t>
   </si>
   <si>
-    <t xml:space="preserve">Masoor dal, Chole</t>
+    <t xml:space="preserve">Masoor Dal, Chole</t>
   </si>
   <si>
     <t xml:space="preserve">Mudda Pappu, Lobia</t>
@@ -214,7 +211,7 @@
     <t xml:space="preserve">Rasam/ Boondi Raitha</t>
   </si>
   <si>
-    <t xml:space="preserve">Soya bean</t>
+    <t xml:space="preserve">Soyaseeds</t>
   </si>
   <si>
     <t xml:space="preserve">Sambar</t>
@@ -226,22 +223,22 @@
     <t xml:space="preserve">Salad</t>
   </si>
   <si>
-    <t xml:space="preserve">Green salad</t>
+    <t xml:space="preserve">Peanut salad</t>
   </si>
   <si>
     <t xml:space="preserve">Onion Salad</t>
   </si>
   <si>
-    <t xml:space="preserve">Kosambari Salad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sweet</t>
   </si>
   <si>
-    <t xml:space="preserve">Mix/Flax seed laddu/ Coconut Laddu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semiya</t>
+    <t xml:space="preserve">Mix/Flax Seed laddu/ Coconut Laddu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenaga Bella Payasam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semiya Payasam</t>
   </si>
   <si>
     <t xml:space="preserve">Fruit Custurd</t>
@@ -259,7 +256,7 @@
     <t xml:space="preserve">Veg Biryani</t>
   </si>
   <si>
-    <t xml:space="preserve">Bisi bele Bath, Boondhi</t>
+    <t xml:space="preserve">Bisi Bele Bath, Boondhi, Palak Roti</t>
   </si>
   <si>
     <t xml:space="preserve">Pulao</t>
@@ -271,42 +268,22 @@
     <t xml:space="preserve">Paneer / Veg Dum Biryani</t>
   </si>
   <si>
-    <t xml:space="preserve">Roti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chutney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachhadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pachadi, Chenaga Bella Payasam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pachadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beerakaya chutney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mango Pickle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gongura Chutney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raita,Papad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creamy Tomato soup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white rice, curd, ghee, fryums
-rice,curd,ghee,fryums          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">white rice, curd, ghee
-rice,curd,ghee,fryums          </t>
+    <t xml:space="preserve">White Rice, Curd, Papad, Chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Rice, Roti, Curd, Fryums, Chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Rice, Curd, Fryums, Chutney, Raita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Rice, Curd, Fryums, Chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Rice, Roti, Curd, Papad, Mango Pickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Rice, Curd, Papad, Chutney, Raita, Challa Mirchi</t>
   </si>
   <si>
     <t xml:space="preserve">Snacks</t>
@@ -342,10 +319,10 @@
     <t xml:space="preserve">Dinner</t>
   </si>
   <si>
-    <t xml:space="preserve">Dondakaya curry/ beetroot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrot Green Peas fry, Aloo 65</t>
+    <t xml:space="preserve">Dondakaya Curry/ Beetroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrot Green Peas Fry, Aloo 65</t>
   </si>
   <si>
     <t xml:space="preserve">Gobi/Veg Manchuria</t>
@@ -369,13 +346,13 @@
     <t xml:space="preserve">Brinjal, Chole</t>
   </si>
   <si>
-    <t xml:space="preserve">Rajmah Curry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toor dal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moong dal, Chole</t>
+    <t xml:space="preserve">Rajma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuver Dal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moong Dal, Chole</t>
   </si>
   <si>
     <t xml:space="preserve">Masoor Dal</t>
@@ -384,10 +361,10 @@
     <t xml:space="preserve">Dalcha</t>
   </si>
   <si>
-    <t xml:space="preserve">Green moong dal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix dal, Soyabean</t>
+    <t xml:space="preserve">Green Moong Dal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix Dal, Soyabean</t>
   </si>
   <si>
     <t xml:space="preserve">Moong dal</t>
@@ -402,7 +379,7 @@
     <t xml:space="preserve">Tomato Rasam</t>
   </si>
   <si>
-    <t xml:space="preserve">Ginger rasam</t>
+    <t xml:space="preserve">Ginger Rasam</t>
   </si>
   <si>
     <t xml:space="preserve">Pappu charu</t>
@@ -414,62 +391,34 @@
     <t xml:space="preserve">Cabbage Poriyal</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lachha Paratha / Chapathi</t>
+    <t xml:space="preserve">Dosa, Groundnut Chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacha Paratha</t>
   </si>
   <si>
     <t xml:space="preserve">Poori</t>
   </si>
   <si>
-    <t xml:space="preserve">karam chitlu podi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groundnut Chutney &amp; fried onions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh chutney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onion salad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spl. Sweet</t>
   </si>
   <si>
-    <t xml:space="preserve">Peanut chiki/ Basen chiki</t>
+    <t xml:space="preserve">Basen Chakki/ Palli Chikki</t>
   </si>
   <si>
     <t xml:space="preserve">Spl Rice</t>
   </si>
   <si>
-    <t xml:space="preserve">Dadhojanam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake guard dhai chutney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamidikaya Pickle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacha Paratha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pl. Rice,Curd,Ghee,Fryums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pl.
-Rice,Curd,Ghee,Fryums</t>
+    <t xml:space="preserve">Daddojanam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steamed Rice, Chapathi, Curd, Pickle, Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steamed Rice, Roti, Curd, Pickle, Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steamed Rice, Curd, Pickle, Salad</t>
   </si>
 </sst>
 </file>
@@ -556,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -631,13 +580,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -664,7 +606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -749,10 +691,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,14 +740,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -890,13 +820,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.15"/>
@@ -1008,636 +938,520 @@
         <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="I10" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="F11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="20" t="s">
+    </row>
+    <row r="14" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="D14" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="E14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="F14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
+      <c r="H14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="I14" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="16" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="C15" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="D15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21"/>
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" s="12" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="B17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="G17" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="H17" s="30"/>
+      <c r="I17" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="24" t="s">
+    </row>
+    <row r="18" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="D18" s="29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" s="12" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="E18" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="F18" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="30" t="s">
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="20" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="32"/>
+    </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" s="12" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="F22" s="30"/>
+      <c r="G22" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30" t="s">
+    </row>
+    <row r="24" s="12" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27"/>
+      <c r="B24" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="E24" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" s="12" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28"/>
-      <c r="B30" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
+      <c r="F24" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
